--- a/GoNoGo/archivos_prueba/statsfile.xlsx
+++ b/GoNoGo/archivos_prueba/statsfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">1161_15y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1328_15y</t>
   </si>
 </sst>
 </file>
@@ -583,6 +586,65 @@
         <v>#NUM!</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>423.51282051282</v>
+      </c>
+      <c r="O4" t="n">
+        <v>110.878281247328</v>
+      </c>
+      <c r="P4" t="n">
+        <v>446.532467532468</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>145.132297578486</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
